--- a/FosterDataset.xlsx
+++ b/FosterDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johns\Desktop\Bootcamp_Folder\Trends-in-Foster-Care-and-Adoption\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A82E40-A021-4E9B-A9BD-3E570E0E3178}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D45886-8CDA-4FD9-8FE9-35768881C9E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="127">
   <si>
     <t>Year</t>
   </si>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>Diff of TPR</t>
+  </si>
+  <si>
+    <t>https://nfyi.org/51-useful-aging-out-of-foster-care-statistics-social-race-media/</t>
   </si>
 </sst>
 </file>
@@ -964,6 +967,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -973,7 +977,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1021,19 +1024,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -5062,7 +5053,7 @@
     <dataField name="Sum of TPR" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -5340,7 +5331,7 @@
     <dataField name="Sum of TPR" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="5">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -14527,8 +14518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H33" workbookViewId="0">
-      <selection activeCell="W57" sqref="W57"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14566,6 +14557,9 @@
       <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="O1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2">
@@ -14682,16 +14676,16 @@
       <c r="U5" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X5" s="8">
         <v>2010</v>
       </c>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="9"/>
-      <c r="AB5" s="7">
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="10"/>
+      <c r="AB5" s="8">
         <v>2019</v>
       </c>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="10"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -18479,15 +18473,15 @@
       <c r="E58" s="1">
         <v>6928</v>
       </c>
-      <c r="S58" s="10">
+      <c r="S58" s="7">
         <f>S57/GETPIVOTDATA("Sum of InCare",$H$5)</f>
         <v>4.2389153175744612E-2</v>
       </c>
-      <c r="T58" s="10">
+      <c r="T58" s="7">
         <f t="shared" ref="T58:U58" si="4">T57/GETPIVOTDATA("Sum of InCare",$H$5)</f>
         <v>3.0986711902742436E-2</v>
       </c>
-      <c r="U58" s="10">
+      <c r="U58" s="7">
         <f t="shared" si="4"/>
         <v>1.3179924032894494E-2</v>
       </c>
